--- a/pred_ohlcv/54_21/2019-11-14 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>522016.4879</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1070746.3363</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1070746.3363</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1055801.9071</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1118100.1411</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1031702.3411</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1031702.3411</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1031702.3411</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1034179.3411</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>849332.8214</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>851010.9714</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>824719.2518000001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>788911.7869000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>788961.7869000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>788138.7867000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>782331.7108</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>803023.1664</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>793742.1664</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>793742.1664</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>714449.8537</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>211506.795813867</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>211549.1686952229</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>209506.7958952229</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>130134.3466952229</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>133416.5359952229</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>99416.53599522292</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>99416.53599522292</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>76511.03069522291</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>76711.03069522291</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>68550.20139522292</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>200566.2717502229</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>151376.1832502229</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>105943.9584502229</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>101222.9527502229</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>101222.9527502229</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>60298.32665022292</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>59398.32665022292</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>59485.32665022292</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-9523.655949777087</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>53726.05405022291</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>47526.97235022291</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>47526.97235022291</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-4577.275449777087</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2653.115449777088</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-17913.29194977709</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-17913.29194977709</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-17913.29194977709</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-17913.29194977709</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-109080.4158497771</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-109080.4158497771</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-93962.22874977709</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-168176.8920497771</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-168176.8920497771</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-244438.0011497771</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-238334.0011497771</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-250334.0011497771</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-250334.0011497771</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-753173.253849777</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-646039.6762372996</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-659176.5383372996</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-657800.8018372996</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-382722.3928372997</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-14 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>522016.4879</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>522016.4879</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1207484.6209</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1207484.6209</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1132746.3363</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1070746.3363</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1070746.3363</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1055801.9071</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1118100.1411</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1031702.3411</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1031702.3411</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1031702.3411</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1031702.3411</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1034179.3411</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>849332.8214</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>788911.7869000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>788961.7869000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>788138.7867000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>782331.7108</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>803023.1664</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>793742.1664</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>793742.1664</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>714449.8537</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-254959.3524497771</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-254959.3524497771</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-254959.3524497771</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-254959.3524497771</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-217890.3524497771</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-352608.2115497771</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-653993.7888497771</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-892996.2467497771</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-728118.4801178522</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-723796.8608178522</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-723796.8608178522</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-708796.8608178522</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-708218.5465178522</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-662528.0079787411</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-663101.184478741</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-681801.117678741</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-657800.8018372996</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-658010.2188372996</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-677527.3570372997</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-650518.5874372997</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-778874.0484372997</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-382722.3928372997</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
